--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3990B64-CCD7-4C7E-A708-1C55D470853A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89870A8C-CA8A-4B06-B2B9-4513C489647B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3012" yWindow="5568" windowWidth="19440" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CastProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -65,6 +65,31 @@
   </si>
   <si>
     <t>RigidBody</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosX</t>
+  </si>
+  <si>
+    <t>PosY</t>
+  </si>
+  <si>
+    <t>PosZ</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -460,30 +485,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="69.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="3" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="69.21875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.77734375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -491,16 +519,25 @@
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
@@ -508,16 +545,25 @@
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
@@ -525,16 +571,25 @@
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4">
         <v>1001</v>
@@ -543,13 +598,22 @@
         <v>4</v>
       </c>
       <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="I6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>1002</v>
       </c>
@@ -557,13 +621,22 @@
         <v>5</v>
       </c>
       <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="I7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4">
         <v>1003</v>
@@ -572,15 +645,27 @@
         <v>8</v>
       </c>
       <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
         <v>4</v>
       </c>
-      <c r="F8" s="4">
+      <c r="I8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89870A8C-CA8A-4B06-B2B9-4513C489647B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4225C0-9159-4FBB-BBFD-44DA76751ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3012" yWindow="5568" windowWidth="19440" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="5916" windowWidth="19440" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CastProto" sheetId="1" r:id="rId1"/>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4225C0-9159-4FBB-BBFD-44DA76751ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41401B66-BD1E-4D86-9FCE-255A11BA276E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="5916" windowWidth="19440" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CastProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -33,14 +33,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestCast1001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestCast1002</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -488,7 +480,7 @@
   <dimension ref="B2:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -496,7 +488,7 @@
     <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
     <col min="3" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="69.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="28.77734375" style="2" customWidth="1"/>
     <col min="10" max="10" width="7.88671875" style="2" customWidth="1"/>
     <col min="11" max="11" width="6.44140625" style="2" customWidth="1"/>
@@ -506,7 +498,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -519,19 +511,19 @@
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -545,19 +537,19 @@
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -571,19 +563,19 @@
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -595,77 +587,49 @@
         <v>1001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="4">
-        <v>1002</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
-      <c r="C8" s="4">
-        <v>1003</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>4</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41401B66-BD1E-4D86-9FCE-255A11BA276E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48D786E-E2EE-4E7B-907B-2B78FD4CC761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>NullStackSuger</author>
+  </authors>
+  <commentList>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{5C96CF2C-0A0D-4361-954A-F7C3EC0C1FB9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>对于传送门这种就需要给2个CastUnit添加PortalComponent,直接在创建Cast后面自己加吧</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -81,7 +105,59 @@
     <t>float</t>
   </si>
   <si>
-    <t>#</t>
+    <t>HpStick</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FortBullet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1.2"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1.1"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bounce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armageddon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastPreview</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +177,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -108,6 +185,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -130,6 +208,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -159,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,6 +256,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,34 +564,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.77734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.77734375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="3" max="8" width="12.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D2" s="5"/>
       <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -519,17 +605,20 @@
       <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
@@ -545,17 +634,20 @@
       <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
@@ -571,17 +663,20 @@
       <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>5</v>
+      <c r="H5" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4">
         <v>1001</v>
@@ -593,47 +688,271 @@
         <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
       </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="C9" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>1006</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>1007</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
+        <v>9</v>
+      </c>
+      <c r="J13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>1009</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="1">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48D786E-E2EE-4E7B-907B-2B78FD4CC761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D7CC7E-FE18-4F0C-AACC-4E3BAC77FF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,7 +568,7 @@
   <dimension ref="B2:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D7CC7E-FE18-4F0C-AACC-4E3BAC77FF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367E13AF-403D-49E4-B6F1-FD1D9A8A014E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -158,6 +158,14 @@
   </si>
   <si>
     <t>Player</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grappler</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"0.5"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -565,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M16"/>
+  <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -949,6 +957,30 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367E13AF-403D-49E4-B6F1-FD1D9A8A014E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE387370-FACA-4167-85BE-16740F35DE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -166,6 +166,10 @@
   </si>
   <si>
     <t>"0.5"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +580,7 @@
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -595,7 +599,9 @@
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE387370-FACA-4167-85BE-16740F35DE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2BF149-4802-4914-A466-31268EEBC450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -161,15 +161,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Grappler</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"0.5"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>s</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grapple</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +576,7 @@
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -600,7 +596,7 @@
       <c r="D2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
@@ -968,16 +964,16 @@
         <v>1012</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1">

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\ET-OWDemo\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2BF149-4802-4914-A466-31268EEBC450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4918A71D-BF86-4478-A753-C1BFE3B697DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CastProto" sheetId="1" r:id="rId1"/>
@@ -576,30 +576,30 @@
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="8" width="12.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.77734375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.88671875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.44140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="2" customWidth="1"/>
+    <col min="3" max="8" width="12.6328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.81640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.453125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.81640625" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -628,7 +628,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
@@ -657,7 +657,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
@@ -785,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
@@ -809,7 +809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
@@ -833,7 +833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
@@ -859,7 +859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C13" s="1">
         <v>1008</v>
       </c>
@@ -883,7 +883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C14" s="1">
         <v>1009</v>
       </c>
@@ -909,7 +909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C15" s="1">
         <v>1010</v>
       </c>
@@ -933,7 +933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C16" s="1">
         <v>1011</v>
       </c>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C17" s="1">
         <v>1012</v>
       </c>
